--- a/natmiOut/OldD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>568.5165909737819</v>
+        <v>826.5501353333334</v>
       </c>
       <c r="H2">
-        <v>568.5165909737819</v>
+        <v>2479.650406</v>
       </c>
       <c r="I2">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="J2">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>15015.9152169678</v>
+        <v>26306.9527979766</v>
       </c>
       <c r="R2">
-        <v>15015.9152169678</v>
+        <v>236762.5751817894</v>
       </c>
       <c r="S2">
-        <v>0.02412420497978388</v>
+        <v>0.0326189682115679</v>
       </c>
       <c r="T2">
-        <v>0.02412420497978388</v>
+        <v>0.03261896821156791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>568.5165909737819</v>
+        <v>826.5501353333334</v>
       </c>
       <c r="H3">
-        <v>568.5165909737819</v>
+        <v>2479.650406</v>
       </c>
       <c r="I3">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="J3">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>48258.29581929665</v>
+        <v>70639.60161743348</v>
       </c>
       <c r="R3">
-        <v>48258.29581929665</v>
+        <v>635756.4145569013</v>
       </c>
       <c r="S3">
-        <v>0.07753060692592589</v>
+        <v>0.08758866666663538</v>
       </c>
       <c r="T3">
-        <v>0.07753060692592589</v>
+        <v>0.08758866666663538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>568.5165909737819</v>
+        <v>826.5501353333334</v>
       </c>
       <c r="H4">
-        <v>568.5165909737819</v>
+        <v>2479.650406</v>
       </c>
       <c r="I4">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="J4">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>64068.45765944276</v>
+        <v>101043.9609817398</v>
       </c>
       <c r="R4">
-        <v>64068.45765944276</v>
+        <v>909395.6488356579</v>
       </c>
       <c r="S4">
-        <v>0.1029308292556482</v>
+        <v>0.1252881615193298</v>
       </c>
       <c r="T4">
-        <v>0.1029308292556482</v>
+        <v>0.1252881615193298</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>568.5165909737819</v>
+        <v>826.5501353333334</v>
       </c>
       <c r="H5">
-        <v>568.5165909737819</v>
+        <v>2479.650406</v>
       </c>
       <c r="I5">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="J5">
-        <v>0.2313940829003782</v>
+        <v>0.2851537905755522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>16686.69656013493</v>
+        <v>31983.87435607463</v>
       </c>
       <c r="R5">
-        <v>16686.69656013493</v>
+        <v>287854.8692046716</v>
       </c>
       <c r="S5">
-        <v>0.0268084417390203</v>
+        <v>0.03965799417801913</v>
       </c>
       <c r="T5">
-        <v>0.0268084417390203</v>
+        <v>0.03965799417801913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>975.057839981621</v>
+        <v>977.7211913333334</v>
       </c>
       <c r="H6">
-        <v>975.057839981621</v>
+        <v>2933.163574</v>
       </c>
       <c r="I6">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="J6">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>25753.66504559757</v>
+        <v>31118.33648132508</v>
       </c>
       <c r="R6">
-        <v>25753.66504559757</v>
+        <v>280065.0283319257</v>
       </c>
       <c r="S6">
-        <v>0.04137521326962771</v>
+        <v>0.03858478160797433</v>
       </c>
       <c r="T6">
-        <v>0.04137521326962771</v>
+        <v>0.03858478160797434</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>975.057839981621</v>
+        <v>977.7211913333334</v>
       </c>
       <c r="H7">
-        <v>975.057839981621</v>
+        <v>2933.163574</v>
       </c>
       <c r="I7">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="J7">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>82767.3816909373</v>
+        <v>83559.1605351998</v>
       </c>
       <c r="R7">
-        <v>82767.3816909373</v>
+        <v>752032.4448167982</v>
       </c>
       <c r="S7">
-        <v>0.1329720668172087</v>
+        <v>0.1036081077962257</v>
       </c>
       <c r="T7">
-        <v>0.1329720668172087</v>
+        <v>0.1036081077962257</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>975.057839981621</v>
+        <v>977.7211913333334</v>
       </c>
       <c r="H8">
-        <v>975.057839981621</v>
+        <v>2933.163574</v>
       </c>
       <c r="I8">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="J8">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>109883.2521833143</v>
+        <v>119524.2946373289</v>
       </c>
       <c r="R8">
-        <v>109883.2521833143</v>
+        <v>1075718.651735961</v>
       </c>
       <c r="S8">
-        <v>0.1765357662994883</v>
+        <v>0.1482026138574659</v>
       </c>
       <c r="T8">
-        <v>0.1765357662994883</v>
+        <v>0.1482026138574659</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>975.057839981621</v>
+        <v>977.7211913333334</v>
       </c>
       <c r="H9">
-        <v>975.057839981621</v>
+        <v>2933.163574</v>
       </c>
       <c r="I9">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="J9">
-        <v>0.3968619706786638</v>
+        <v>0.3373067064132887</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N9">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P9">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q9">
-        <v>28619.2075353246</v>
+        <v>37833.53290029498</v>
       </c>
       <c r="R9">
-        <v>28619.2075353246</v>
+        <v>340501.7961026548</v>
       </c>
       <c r="S9">
-        <v>0.04597892429233916</v>
+        <v>0.04691120315162273</v>
       </c>
       <c r="T9">
-        <v>0.04597892429233916</v>
+        <v>0.04691120315162273</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>503.631460093208</v>
+        <v>577.0637716666666</v>
       </c>
       <c r="H10">
-        <v>503.631460093208</v>
+        <v>1731.191315</v>
       </c>
       <c r="I10">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="J10">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N10">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P10">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q10">
-        <v>13302.14003500571</v>
+        <v>18366.44718052728</v>
       </c>
       <c r="R10">
-        <v>13302.14003500571</v>
+        <v>165298.0246247456</v>
       </c>
       <c r="S10">
-        <v>0.02137089536251844</v>
+        <v>0.02277324026624397</v>
       </c>
       <c r="T10">
-        <v>0.02137089536251844</v>
+        <v>0.02277324026624398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>503.631460093208</v>
+        <v>577.0637716666666</v>
       </c>
       <c r="H11">
-        <v>503.631460093208</v>
+        <v>1731.191315</v>
       </c>
       <c r="I11">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="J11">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N11">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P11">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q11">
-        <v>42750.5483058157</v>
+        <v>49317.70402765428</v>
       </c>
       <c r="R11">
-        <v>42750.5483058157</v>
+        <v>443859.3362488886</v>
       </c>
       <c r="S11">
-        <v>0.06868199343335848</v>
+        <v>0.06115085362791627</v>
       </c>
       <c r="T11">
-        <v>0.06868199343335848</v>
+        <v>0.06115085362791627</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>503.631460093208</v>
+        <v>577.0637716666666</v>
       </c>
       <c r="H12">
-        <v>503.631460093208</v>
+        <v>1731.191315</v>
       </c>
       <c r="I12">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="J12">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N12">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P12">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q12">
-        <v>56756.28713258269</v>
+        <v>70544.79424257466</v>
       </c>
       <c r="R12">
-        <v>56756.28713258269</v>
+        <v>634903.148183172</v>
       </c>
       <c r="S12">
-        <v>0.09118327353971173</v>
+        <v>0.0874711114799708</v>
       </c>
       <c r="T12">
-        <v>0.09118327353971173</v>
+        <v>0.08747111147997082</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>503.631460093208</v>
+        <v>577.0637716666666</v>
       </c>
       <c r="H13">
-        <v>503.631460093208</v>
+        <v>1731.191315</v>
       </c>
       <c r="I13">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="J13">
-        <v>0.2049849409468168</v>
+        <v>0.1990828079995583</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N13">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P13">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q13">
-        <v>14782.23412674447</v>
+        <v>22329.84350185355</v>
       </c>
       <c r="R13">
-        <v>14782.23412674447</v>
+        <v>200968.5915166819</v>
       </c>
       <c r="S13">
-        <v>0.02374877861122815</v>
+        <v>0.02768760262542722</v>
       </c>
       <c r="T13">
-        <v>0.02374877861122815</v>
+        <v>0.02768760262542722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>409.713421008926</v>
+        <v>517.2766776666667</v>
       </c>
       <c r="H14">
-        <v>409.713421008926</v>
+        <v>1551.830033</v>
       </c>
       <c r="I14">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="J14">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N14">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P14">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q14">
-        <v>10821.53465844515</v>
+        <v>16463.57862779043</v>
       </c>
       <c r="R14">
-        <v>10821.53465844515</v>
+        <v>148172.2076501139</v>
       </c>
       <c r="S14">
-        <v>0.01738561496412624</v>
+        <v>0.0204138028464418</v>
       </c>
       <c r="T14">
-        <v>0.01738561496412624</v>
+        <v>0.02041380284644181</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>409.713421008926</v>
+        <v>517.2766776666667</v>
       </c>
       <c r="H15">
-        <v>409.713421008926</v>
+        <v>1551.830033</v>
       </c>
       <c r="I15">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="J15">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N15">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P15">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q15">
-        <v>34778.35438068439</v>
+        <v>44208.10895110053</v>
       </c>
       <c r="R15">
-        <v>34778.35438068439</v>
+        <v>397872.9805599047</v>
       </c>
       <c r="S15">
-        <v>0.05587406014327617</v>
+        <v>0.05481527684500166</v>
       </c>
       <c r="T15">
-        <v>0.05587406014327617</v>
+        <v>0.05481527684500166</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>409.713421008926</v>
+        <v>517.2766776666667</v>
       </c>
       <c r="H16">
-        <v>409.713421008926</v>
+        <v>1551.830033</v>
       </c>
       <c r="I16">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="J16">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N16">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P16">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q16">
-        <v>46172.27954852486</v>
+        <v>63235.95169921059</v>
       </c>
       <c r="R16">
-        <v>46172.27954852486</v>
+        <v>569123.5652928953</v>
       </c>
       <c r="S16">
-        <v>0.07417926380896435</v>
+        <v>0.07840860604970733</v>
       </c>
       <c r="T16">
-        <v>0.07417926380896435</v>
+        <v>0.07840860604970734</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>409.713421008926</v>
+        <v>517.2766776666667</v>
       </c>
       <c r="H17">
-        <v>409.713421008926</v>
+        <v>1551.830033</v>
       </c>
       <c r="I17">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="J17">
-        <v>0.1667590054741412</v>
+        <v>0.1784566950116009</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N17">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P17">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q17">
-        <v>12025.618322379</v>
+        <v>20016.34451266077</v>
       </c>
       <c r="R17">
-        <v>12025.618322379</v>
+        <v>180147.1006139469</v>
       </c>
       <c r="S17">
-        <v>0.01932006655777443</v>
+        <v>0.02481900927045005</v>
       </c>
       <c r="T17">
-        <v>0.01932006655777443</v>
+        <v>0.02481900927045005</v>
       </c>
     </row>
   </sheetData>
